--- a/db and notes/layouts and bus stops.xlsx
+++ b/db and notes/layouts and bus stops.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webdev\Gaman\db and notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="seating layout - large bus" sheetId="1" r:id="rId1"/>
     <sheet name="bus stops - 171" sheetId="2" r:id="rId2"/>
     <sheet name="bus stops - 177" sheetId="3" r:id="rId3"/>
     <sheet name="bus stops - 163" sheetId="4" r:id="rId4"/>
+    <sheet name="bus stops - 154" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Entrance</t>
   </si>
@@ -63,24 +69,9 @@
     <t>Technical Junction</t>
   </si>
   <si>
-    <t>Bogaha Handiya</t>
-  </si>
-  <si>
     <t>Fort</t>
   </si>
   <si>
-    <t>Pelawatte</t>
-  </si>
-  <si>
-    <t>Water Board</t>
-  </si>
-  <si>
-    <t>Palath Sabha</t>
-  </si>
-  <si>
-    <t>Widesha Seva</t>
-  </si>
-  <si>
     <t>Thalangama Depot</t>
   </si>
   <si>
@@ -213,7 +204,34 @@
     <t>Gothami Road</t>
   </si>
   <si>
-    <t>Aquinas</t>
+    <t>Pelawatte - Palam Thuna (3 bridges)</t>
+  </si>
+  <si>
+    <t>Videsha Seva (Foreign Employment Bureau)</t>
+  </si>
+  <si>
+    <t>Palath Sabha (Western Provincial Council)</t>
+  </si>
+  <si>
+    <t>Koswatte - Thalangama Depot</t>
+  </si>
+  <si>
+    <t>Ethul Kotte - Sri Jayawardenapura Mw</t>
+  </si>
+  <si>
+    <t>Borella - Supermarket</t>
+  </si>
+  <si>
+    <t>Borella - Maradana Road</t>
+  </si>
+  <si>
+    <t>Borella - Aquinas</t>
+  </si>
+  <si>
+    <t>Bo Gaha Handiya (Bo Tree Junction)</t>
+  </si>
+  <si>
+    <t>Hultsdorf</t>
   </si>
 </sst>
 </file>
@@ -302,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -428,24 +446,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -464,7 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,36 +788,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="31.5" customHeight="1">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="3:13" ht="31.5" customHeight="1">
-      <c r="C3" s="18" t="s">
+    <row r="2" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="3:13" ht="31.5" customHeight="1">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5">
@@ -820,15 +826,15 @@
       <c r="H4" s="5">
         <v>18</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="31.5" customHeight="1">
+    <row r="5" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -847,15 +853,15 @@
       <c r="H5" s="5">
         <v>20</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="31.5" customHeight="1">
+    <row r="6" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>3</v>
       </c>
@@ -874,15 +880,15 @@
       <c r="H6" s="5">
         <v>22</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="15"/>
+      <c r="K6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="M6" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="31.5" customHeight="1">
+    <row r="7" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -902,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="31.5" customHeight="1">
+    <row r="8" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -922,7 +928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="31.5" customHeight="1">
+    <row r="9" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>9</v>
       </c>
@@ -942,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="31.5" customHeight="1">
+    <row r="10" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>11</v>
       </c>
@@ -962,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="31.5" customHeight="1">
+    <row r="11" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>13</v>
       </c>
@@ -982,7 +988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="31.5" customHeight="1">
+    <row r="12" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>15</v>
       </c>
@@ -1002,11 +1008,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="31.5" customHeight="1">
-      <c r="C13" s="13" t="s">
+    <row r="13" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5">
@@ -1016,7 +1022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="31.5" customHeight="1">
+    <row r="14" spans="3:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>37</v>
       </c>
@@ -1058,146 +1064,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A28"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>13</v>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1218,109 +1231,109 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1328,78 +1341,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1421,129 +1434,129 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1554,4 +1567,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>